--- a/data/income_statement/3digits/total/502_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/502_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>502-Sea and coastal freight water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>502-Sea and coastal freight water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,17 +841,22 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4367572.95027</v>
+        <v>4367572.950270001</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>5301844.62494</v>
@@ -959,34 +865,39 @@
         <v>6708520.45967</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7114207.721349999</v>
+        <v>7134650.17835</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7253494.268390001</v>
+        <v>7278480.89711</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8648681.18362</v>
+        <v>8659407.68988</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9105027.163489999</v>
+        <v>9186064.99329</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9469951.661760001</v>
+        <v>9471957.703790002</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>12628522.56416</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19392463.48901</v>
+        <v>19402832.62464</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22125927.65637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>22164749.42228</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27424783.767</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1757468.12775</v>
@@ -1001,31 +912,36 @@
         <v>3177355.03293</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3330849.721520001</v>
+        <v>3330849.72152</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3897860.7796</v>
+        <v>3898986.80966</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4329635.58446</v>
+        <v>4334620.4946</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4725514.19159</v>
+        <v>4726837.83071</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6471469.870089999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9509534.437690001</v>
+        <v>9509750.368719999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11254949.45602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11255590.1889</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13488264.357</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2565831.27897</v>
@@ -1037,37 +953,42 @@
         <v>3733504.06724</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3859541.33941</v>
+        <v>3878488.58366</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3809398.4073</v>
+        <v>3831847.97816</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4614132.92995</v>
+        <v>4623665.7287</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4629425.77797</v>
+        <v>4705097.34933</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4600092.50268</v>
+        <v>4600774.905590001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5937122.86548</v>
+        <v>5937122.865479999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9643050.568300001</v>
+        <v>9653154.499979999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10548950.64054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10582803.83809</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13532451.56</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>44273.54354999999</v>
+        <v>44273.54355</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>103480.29894</v>
@@ -1076,16 +997,16 @@
         <v>286628.25687</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>77311.34900999999</v>
+        <v>78806.56176000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>113246.13957</v>
+        <v>115783.19743</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>136687.47407</v>
+        <v>136755.15152</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>145965.80106</v>
+        <v>146347.14936</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>144344.96749</v>
@@ -1094,16 +1015,21 @@
         <v>219929.82859</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>239878.48302</v>
+        <v>239927.75594</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>322027.55981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>326355.39529</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>404067.85</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>22406.21436</v>
@@ -1115,7 +1041,7 @@
         <v>76615.7225</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>44076.27595999999</v>
+        <v>44076.27596</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>39721.97075</v>
@@ -1124,7 +1050,7 @@
         <v>80547.85825</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>164984.63158</v>
+        <v>165159.18965</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>184390.87381</v>
@@ -1133,16 +1059,21 @@
         <v>265236.89488</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>507284.7126800001</v>
+        <v>507290.62076</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>668477.6791300001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>668558.04174</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>866752.611</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>18306.55693</v>
@@ -1163,7 +1094,7 @@
         <v>50974.83319</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>107078.73162</v>
+        <v>107234.82543</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>107647.58389</v>
@@ -1172,16 +1103,21 @@
         <v>199467.23458</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>389843.65805</v>
+        <v>389849.56613</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>472938.47011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>472997.15017</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>585425.403</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1165.05938</v>
@@ -1193,10 +1129,10 @@
         <v>24477.91776</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8083.902979999999</v>
+        <v>8083.90298</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9610.75093</v>
+        <v>9610.750930000002</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>22685.0904</v>
@@ -1205,10 +1141,10 @@
         <v>52951.79396</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>72634.28997999999</v>
+        <v>72634.28998</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>65020.29598999999</v>
+        <v>65020.29599</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>116645.74442</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>194289.34232</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>280361.949</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2934.59805</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7391.93828</v>
+        <v>7391.938280000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>6785.49812</v>
@@ -1238,13 +1179,13 @@
         <v>5295.462509999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6887.93466</v>
+        <v>6887.934659999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4954.106</v>
+        <v>4972.57026</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4108.999940000001</v>
+        <v>4108.99994</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>749.36431</v>
@@ -1253,13 +1194,18 @@
         <v>795.31021</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1249.8667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1271.54925</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>965.259</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4345166.73591</v>
@@ -1271,34 +1217,39 @@
         <v>6631904.73717</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7070131.445389999</v>
+        <v>7090573.902389999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7213772.29764</v>
+        <v>7238758.926360001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8568133.325369999</v>
+        <v>8578859.831629999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8940042.53191</v>
+        <v>9020905.803639999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9285560.787950002</v>
+        <v>9287566.829979999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>12363285.66928</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>18885178.77633</v>
+        <v>18895542.00388</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21457449.97724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21496191.38054</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26558031.156</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3845158.02734</v>
@@ -1310,34 +1261,39 @@
         <v>5772843.93258</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6250997.882979999</v>
+        <v>6268304.62706</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6390729.34522</v>
+        <v>6406212.34654</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7353659.51101</v>
+        <v>7361539.63562</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7416885.33831</v>
+        <v>7493205.23821</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7815102.098410001</v>
+        <v>7816319.027</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>10343992.039</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15708381.49268</v>
+        <v>15717796.52827</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>18143678.21229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18172894.74949</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22151404.866</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>80008.55198</v>
@@ -1346,7 +1302,7 @@
         <v>21451.45771</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>471.20898</v>
+        <v>471.2089800000001</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>4351.94174</v>
@@ -1361,7 +1317,7 @@
         <v>48731.32128</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1447980.20803</v>
+        <v>1448432.41388</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6934.40826</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>17496.93149</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>91845.19100000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>131513.53933</v>
@@ -1388,7 +1349,7 @@
         <v>178547.60378</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>146761.56173</v>
+        <v>146762.00048</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>121368.83652</v>
@@ -1406,16 +1367,21 @@
         <v>305914.50123</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>672818.8403299999</v>
+        <v>673093.2958399999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3666525.81608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3666994.51052</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1228444.649</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3607147.980650001</v>
@@ -1424,37 +1390,42 @@
         <v>4273320.83674</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5391720.60223</v>
+        <v>5391720.602229999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6028623.45317</v>
+        <v>6045929.7585</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6183678.125940001</v>
+        <v>6199161.12726</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6732241.994440001</v>
+        <v>6740122.119049999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6791266.10324</v>
+        <v>6867586.00314</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6109840.9393</v>
+        <v>6110605.66204</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>9961155.54438</v>
+        <v>9961155.544380002</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>14930596.77245</v>
+        <v>14939737.35253</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>14350215.54215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14378963.38491</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>20700225.834</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>26487.95538</v>
@@ -1472,16 +1443,16 @@
         <v>85059.78149000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>63946.22715</v>
+        <v>63946.22715000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>87752.36210999999</v>
+        <v>87752.36211</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>61339.65774</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>69987.58512999999</v>
+        <v>69987.58513000001</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>99046.90476</v>
@@ -1489,50 +1460,60 @@
       <c r="M18" s="48" t="n">
         <v>109439.92257</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>130889.192</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>500008.7085700001</v>
+        <v>500008.70857</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>794212.6909500001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>859060.8045900001</v>
+        <v>859060.80459</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>819133.5624099999</v>
+        <v>822269.27533</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>823042.95242</v>
+        <v>832546.57982</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1214473.81436</v>
+        <v>1217320.19601</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1523157.1936</v>
+        <v>1527700.56543</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1470458.68954</v>
+        <v>1471247.80298</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2019293.63028</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3176797.28365</v>
+        <v>3177745.47561</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3313771.76495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3323296.63105</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4406626.29</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>418031.7713</v>
@@ -1544,34 +1525,39 @@
         <v>459468.73701</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>495693.98148</v>
+        <v>520701.83512</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>554278.00644</v>
+        <v>579828.5769199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>614101.0212000001</v>
+        <v>614246.5066699999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>658260.5250599999</v>
+        <v>688577.6659</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>736035.81204</v>
+        <v>738510.40117</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>815277.33727</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1098067.4524</v>
+        <v>1099560.12926</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1167188.34905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1181149.59438</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1417316.456</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1353.83482</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>331.13577</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>16864.24</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>71042.64777</v>
@@ -1622,34 +1613,39 @@
         <v>43081.95598999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>62814.15704</v>
+        <v>78926.14984999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>61049.84305999999</v>
+        <v>77277.52150999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>62210.3311</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>46931.70672</v>
+        <v>63201.41689</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>70642.98879999999</v>
+        <v>70644.78346999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>70738.20351000001</v>
+        <v>70738.20350999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>84453.08392999999</v>
+        <v>84920.95907</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>84658.0944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>87041.0944</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>98855.13400000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>345635.28871</v>
@@ -1661,37 +1657,42 @@
         <v>416307.37346</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>432877.3302</v>
+        <v>441773.19103</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>493225.66338</v>
+        <v>502548.55541</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>551850.92892</v>
+        <v>551996.4143899999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>610174.15178</v>
+        <v>624221.5824500001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>665392.8232400001</v>
+        <v>667865.6176999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>744539.1327599999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1013613.70497</v>
+        <v>1014638.50669</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1082199.11888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1093777.36421</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1301597.082</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>81976.93726999999</v>
+        <v>81976.93727000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>368587.75898</v>
@@ -1700,73 +1701,83 @@
         <v>399592.06758</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>323439.5809299999</v>
+        <v>301567.44021</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>268764.94598</v>
+        <v>252718.0029</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>600372.7931600001</v>
+        <v>603073.68934</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>864896.6685400001</v>
+        <v>839122.8995299999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>734422.8774999999</v>
+        <v>732737.40181</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1204016.29301</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2078729.83125</v>
+        <v>2078185.34635</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2146583.4159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2142147.03667</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2989309.834</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1156815.33064</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>873866.5689300001</v>
+        <v>873866.56893</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>911763.32921</v>
+        <v>911763.3292099999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1466038.69052</v>
+        <v>1504371.67282</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1116867.41556</v>
+        <v>1131011.93904</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1719422.54355</v>
+        <v>1721498.82598</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1699264.5682</v>
+        <v>1739907.5222</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1825975.30379</v>
+        <v>1837001.51238</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2774345.92759</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8455117.255110001</v>
+        <v>8455120.595970001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6854368.12493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6857115.586639999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8380716.716</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>10574.04315</v>
@@ -1778,19 +1789,19 @@
         <v>33349.53438</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>69356.35274999999</v>
+        <v>69356.35275000001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>29897.28509</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>98663.32618</v>
+        <v>98663.32617999999</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>51894.58972</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>97797.06045</v>
+        <v>108363.71724</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>125477.8745</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>76992.08932</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>93724.23</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>160786.166</v>
@@ -1826,10 +1842,10 @@
         <v>240456.97117</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>62041.24808999999</v>
+        <v>62041.24809</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>55333.8015</v>
+        <v>55333.80149999999</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>246225.65871</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>467370.1125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>241956.209</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>65877.17838</v>
@@ -1856,19 +1877,19 @@
         <v>49688.89731</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>68569.56027</v>
+        <v>68788.32682</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>78666.77614000002</v>
+        <v>78666.82325999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>85910.01463999999</v>
+        <v>86012.95474</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>95692.94678</v>
+        <v>96205.4005</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>110630.12105</v>
+        <v>110635.89601</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>147135.3995</v>
@@ -1877,13 +1898,18 @@
         <v>205895.48284</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>187731.32143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>188876.69916</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>155286.928</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2939.73806</v>
@@ -1901,13 +1927,13 @@
         <v>3379.99324</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5843.386519999999</v>
+        <v>5866.25322</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>4664.99281</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5319.367109999999</v>
+        <v>5319.60591</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>24653.8701</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>20119.09793</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>32069.049</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4171.610479999999</v>
+        <v>4171.61048</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>799.1277</v>
@@ -1934,13 +1965,13 @@
         <v>1717.62552</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>965.5167100000001</v>
+        <v>965.51671</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1080.83926</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4225.15103</v>
+        <v>4225.151029999999</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>2888.18194</v>
@@ -1949,22 +1980,27 @@
         <v>1970.46905</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3413.173850000001</v>
+        <v>3413.17385</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>7321.84762</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6704.753430000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6704.75343</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8388.819</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>6902.846779999999</v>
+        <v>6902.84678</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>744.1336600000001</v>
@@ -1973,7 +2009,7 @@
         <v>1671.33715</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>274617.7805</v>
+        <v>274617.8033999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1757.4649</v>
@@ -1982,7 +2018,7 @@
         <v>14147.61585</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3371.93071</v>
+        <v>6891.544539999999</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>31373.19724</v>
@@ -1994,13 +2030,18 @@
         <v>375.3385</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5536.484390000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>5536.48439</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1930.524</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>854770.3613199999</v>
@@ -2012,34 +2053,39 @@
         <v>746892.73713</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>741943.3036600001</v>
+        <v>779704.5869400001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>900334.25434</v>
+        <v>914173.5720999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1184848.01328</v>
+        <v>1186798.48891</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1400755.5564</v>
+        <v>1429759.57465</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1426273.73263</v>
+        <v>1426677.40852</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1806722.88618</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6588318.12606</v>
+        <v>6588321.466890001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5349377.75413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5349834.599649999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6956987.306</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>235.64579</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>81.79548</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>50.733</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>9.845090000000001</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>72.023</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>50547.89559</v>
@@ -2129,34 +2185,39 @@
         <v>57596.41821</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>65091.43717</v>
+        <v>65444.34673999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>79604.32359999999</v>
+        <v>79909.48219999998</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>84707.84845999999</v>
+        <v>84707.84846000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>77219.14061</v>
+        <v>84826.00880999998</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>97207.11212999999</v>
+        <v>97256.97427999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>159037.70411</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1316115.54262</v>
+        <v>1316115.54265</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>740454.71632</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>741599.95478</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>890250.895</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>579607.11638</v>
@@ -2168,37 +2229,42 @@
         <v>872369.4947200001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>455141.65982</v>
+        <v>467845.04975</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>914794.92357</v>
+        <v>927850.1307999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>848638.2421799999</v>
+        <v>852422.5403999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1207340.56351</v>
+        <v>1257252.02761</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1507234.45132</v>
+        <v>1507704.74639</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1753168.31849</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6501837.874399998</v>
+        <v>6501839.04289</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5463195.042320001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5463698.924810001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6935422.983</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3872.19513</v>
+        <v>3872.195130000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>3357.88242</v>
@@ -2228,13 +2294,18 @@
         <v>8655.181779999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>8569.586130000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8569.58613</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8037.089</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4038.31556</v>
@@ -2258,22 +2329,27 @@
         <v>10939.72592</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11558.07509</v>
+        <v>11772.16292</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>17110.00176</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>41472.54148</v>
+        <v>41472.54148000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>38661.59088</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>27891.703</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>275.60633</v>
@@ -2288,7 +2364,7 @@
         <v>678.609</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>930.03392</v>
+        <v>930.0339200000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>3787.53513</v>
@@ -2297,7 +2373,7 @@
         <v>514.3902399999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>633.03216</v>
+        <v>633.0321599999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>91.14508000000001</v>
@@ -2306,52 +2382,62 @@
         <v>36.59008</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>556.2809400000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>556.28094</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>4346.145</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>529058.68995</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>462405.88691</v>
+        <v>462405.8869099999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>812489.72045</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>352215.8569</v>
+        <v>364919.24683</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>839811.6566999999</v>
+        <v>852866.8639300001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>783458.72465</v>
+        <v>787243.02287</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1124265.11548</v>
+        <v>1174138.44366</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1416534.08825</v>
+        <v>1416790.29406</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1604792.18973</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6015454.56869</v>
+        <v>6015455.73718</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4716687.26908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4717191.14129</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6207661.791</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>33.18282</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>65.40688</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>157.475</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>42329.12659000001</v>
@@ -2441,34 +2537,39 @@
         <v>50653.74363</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>88598.08549</v>
+        <v>88598.08549000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>60423.89360999999</v>
+        <v>60423.89361</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>50852.01151</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>66698.96436</v>
+        <v>66737.10028</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>74529.41228</v>
+        <v>74529.41370999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>127085.04146</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>436116.8280399999</v>
+        <v>436116.82804</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>698654.9084099999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>698654.9186900001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>687328.78</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>558863.1804</v>
@@ -2477,7 +2578,7 @@
         <v>453688.10729</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>958022.6820199999</v>
+        <v>958022.6820200001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>457489.46827</v>
@@ -2486,28 +2587,33 @@
         <v>1094244.97701</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>791383.9136</v>
+        <v>792096.07157</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1341485.58852</v>
+        <v>1347219.34013</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1181020.86333</v>
+        <v>1181060.47337</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1464715.27977</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3329046.34225</v>
+        <v>3329048.07208</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2236505.70662</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2240564.35747</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4172345.96</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>149774.79587</v>
@@ -2516,7 +2622,7 @@
         <v>161998.40289</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>244762.1004400001</v>
+        <v>244762.10044</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>154521.44239</v>
@@ -2525,28 +2631,33 @@
         <v>274683.2664199999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>288923.86101</v>
+        <v>289636.01898</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>338070.20704</v>
+        <v>343551.24093</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>278715.57238</v>
+        <v>278755.18242</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>346206.7062499999</v>
+        <v>346206.70625</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>806148.6612199999</v>
+        <v>806150.39105</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>953954.92512</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>954085.7075800002</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1190222.294</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>409088.38453</v>
@@ -2555,19 +2666,19 @@
         <v>291689.7044</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>713260.58158</v>
+        <v>713260.5815799999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>302968.02588</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>819561.71059</v>
+        <v>819561.7105899999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>502460.05259</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1003415.38148</v>
+        <v>1003668.0992</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>902305.2909500001</v>
@@ -2579,13 +2690,18 @@
         <v>2522897.68103</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1282550.7815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1286478.64989</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2982123.666</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>100321.97113</v>
@@ -2597,34 +2713,39 @@
         <v>-519036.77995</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>876847.14336</v>
+        <v>880604.59501</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-623407.5390400001</v>
+        <v>-638365.16587</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>679773.18093</v>
+        <v>680053.90335</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15335.08471</v>
+        <v>-25440.94601000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-127857.13336</v>
+        <v>-119026.30557</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>760478.62234</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>702962.86971</v>
+        <v>702418.82735</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1301250.79189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1294999.34103</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>262257.607</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>253817.1809</v>
@@ -2636,34 +2757,39 @@
         <v>309422.03786</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>191806.64704</v>
+        <v>191884.34786</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>366496.2107</v>
+        <v>366605.68025</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>286316.37673</v>
+        <v>286317.91577</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>288110.21056</v>
+        <v>288396.27036</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>354911.24033</v>
+        <v>354947.49246</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>355102.16839</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>639519.9146499999</v>
+        <v>639688.79495</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1173584.01182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1187704.77636</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>808105.493</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2066.77647</v>
@@ -2675,16 +2801,16 @@
         <v>23305.44411</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3503.87522</v>
+        <v>3509.34242</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3414.29427</v>
+        <v>3523.68821</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>2864.00739</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3153.53705</v>
+        <v>3203.19147</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>23548.31784</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>10470.75898</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>21638.502</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>251750.40443</v>
@@ -2714,34 +2845,39 @@
         <v>286116.59375</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>188302.77182</v>
+        <v>188375.00544</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>363081.91643</v>
+        <v>363081.99204</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>283452.36934</v>
+        <v>283453.90838</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>284956.67351</v>
+        <v>285193.07889</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>331362.92249</v>
+        <v>331399.17462</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>353079.59527</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>629200.95401</v>
+        <v>629369.8343099999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1163113.25284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1177234.01738</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>786466.991</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>107371.68888</v>
@@ -2750,37 +2886,42 @@
         <v>262816.61963</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>619471.1628799998</v>
+        <v>619471.16288</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>234935.90473</v>
+        <v>235044.73763</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>196522.09455</v>
+        <v>196573.04488</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>428900.16205</v>
+        <v>428960.94604</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>257769.08516</v>
+        <v>258587.77563</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>546283.74449</v>
+        <v>546324.86266</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>283282.50394</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>372591.90599</v>
+        <v>372687.4557</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>323477.3258700001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>324197.50893</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>449697.523</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2542.92395</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.2245</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>779.39</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>7488.86213</v>
@@ -2831,19 +2977,19 @@
         <v>18977.13309</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>7279.80599</v>
+        <v>7302.93876</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10611.5474</v>
+        <v>10657.56025</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6890.79388</v>
+        <v>6890.793880000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8686.244049999999</v>
+        <v>8704.222220000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>32504.99176</v>
+        <v>32506.5606</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>13247.46087</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>23018.41006</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>113927.547</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>97339.9028</v>
@@ -2870,34 +3021,39 @@
         <v>598001.88164</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>224895.98811</v>
+        <v>224981.68824</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>183916.76933</v>
+        <v>183921.70681</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>419345.21987</v>
+        <v>419406.0038599999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>234499.8134</v>
+        <v>235300.5257</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>510923.8916099999</v>
+        <v>510963.4409400001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>267858.5509799999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>359747.6809</v>
+        <v>359843.23061</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>300458.69131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>301178.87437</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>334990.586</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>246767.46315</v>
@@ -2909,34 +3065,39 @@
         <v>-829085.9049699999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>833717.88567</v>
+        <v>837444.20524</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-453433.42289</v>
+        <v>-468332.5305000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>537189.39561</v>
+        <v>537410.87308</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>45676.21011</v>
+        <v>4367.548720000003</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-319229.63752</v>
+        <v>-310403.67577</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>832298.2867899999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>969890.87837</v>
+        <v>969420.1666</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2151357.47784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2158506.60846</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>620665.577</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>16985.68034</v>
@@ -2948,34 +3109,39 @@
         <v>27436.9105</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>36532.62609</v>
+        <v>36542.6807</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>40366.49234999999</v>
+        <v>40366.49235</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>31119.51558</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33906.14075999999</v>
+        <v>35114.97782</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>46298.77423</v>
+        <v>46312.48336999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>58320.94061999999</v>
+        <v>58320.94062</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>149741.23751</v>
+        <v>149752.36692</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>126834.20439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>126813.34592</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>172239.645</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>229781.78281</v>
@@ -2984,34 +3150,37 @@
         <v>210871.7915</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-856522.8154699999</v>
+        <v>-856522.81547</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>797185.2595800001</v>
+        <v>800901.52454</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-493799.91524</v>
+        <v>-508699.02285</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>506069.8800300001</v>
+        <v>506291.3575</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>11770.06935</v>
+        <v>-30747.42910000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-365528.41175</v>
+        <v>-356716.15914</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>773977.34617</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>820149.64086</v>
+        <v>819667.7996799998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2024523.27345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2031693.26254</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>448425.932</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>960</v>
@@ -3041,31 +3213,34 @@
         <v>984</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1020</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1006</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>